--- a/trunk/doc/Itr-01/Design.xlsx
+++ b/trunk/doc/Itr-01/Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\AnonCall\doc\Itr-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,10 +124,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8297,7 +8297,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Oops page</a:t>
+            <a:t>Problem page</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11984,20 +11984,20 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
-      <c r="AE45" s="8" t="s">
+      <c r="AE45" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="8"/>
-      <c r="AH45" s="8"/>
-      <c r="AI45" s="8"/>
-      <c r="AJ45" s="8"/>
-      <c r="AK45" s="8"/>
-      <c r="AL45" s="8"/>
-      <c r="AM45" s="8"/>
-      <c r="AN45" s="8"/>
-      <c r="AO45" s="8"/>
-      <c r="AP45" s="8"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="9"/>
+      <c r="AJ45" s="9"/>
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="9"/>
+      <c r="AM45" s="9"/>
+      <c r="AN45" s="9"/>
+      <c r="AO45" s="9"/>
+      <c r="AP45" s="9"/>
       <c r="AQ45" s="2"/>
       <c r="AR45" s="2"/>
       <c r="AS45" s="2"/>
@@ -12061,18 +12061,18 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="8"/>
-      <c r="AG46" s="8"/>
-      <c r="AH46" s="8"/>
-      <c r="AI46" s="8"/>
-      <c r="AJ46" s="8"/>
-      <c r="AK46" s="8"/>
-      <c r="AL46" s="8"/>
-      <c r="AM46" s="8"/>
-      <c r="AN46" s="8"/>
-      <c r="AO46" s="8"/>
-      <c r="AP46" s="8"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="9"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9"/>
+      <c r="AM46" s="9"/>
+      <c r="AN46" s="9"/>
+      <c r="AO46" s="9"/>
+      <c r="AP46" s="9"/>
       <c r="AQ46" s="2"/>
       <c r="AR46" s="2"/>
       <c r="AS46" s="2"/>
@@ -14226,20 +14226,20 @@
       <c r="BB77" s="1"/>
     </row>
     <row r="78" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -14284,18 +14284,18 @@
       <c r="BB78" s="1"/>
     </row>
     <row r="79" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>

--- a/trunk/doc/Itr-01/Design.xlsx
+++ b/trunk/doc/Itr-01/Design.xlsx
@@ -3633,7 +3633,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Send Oops email</a:t>
+            <a:t>Send Retry email</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
@@ -5996,7 +5996,7 @@
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6004,12 +6004,13 @@
         <xdr:cNvPr id="335" name="Elbow Connector 334"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="319" idx="3"/>
+          <a:endCxn id="491" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12763500" y="2762250"/>
-          <a:ext cx="190500" cy="666750"/>
+          <a:off x="9715500" y="7334250"/>
+          <a:ext cx="190500" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7986,7 +7987,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>AcceptReady page</a:t>
+            <a:t>Accept page</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9711,7 +9712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/trunk/doc/Itr-01/Design.xlsx
+++ b/trunk/doc/Itr-01/Design.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
+    <sheet name="Translate" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="170">
   <si>
     <t>InvitationController</t>
   </si>
@@ -36,6 +37,504 @@
   </si>
   <si>
     <t>TropoController</t>
+  </si>
+  <si>
+    <t>GetStart_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = "</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Anonymous Voice Connection</t>
+  </si>
+  <si>
+    <t>匿名電話サービス</t>
+  </si>
+  <si>
+    <t>Ready to talk?</t>
+  </si>
+  <si>
+    <t>Speak now, securely and anonymously.</t>
+  </si>
+  <si>
+    <t>匿名で話しましょう</t>
+  </si>
+  <si>
+    <t>Invite. Accept. Connect.</t>
+  </si>
+  <si>
+    <t>Yahoo! Anonymous Voice Connection (AVC)</t>
+  </si>
+  <si>
+    <t>Yahoo! 匿名電話サービスは、</t>
+  </si>
+  <si>
+    <t>connects two parties while protecting</t>
+  </si>
+  <si>
+    <t>お互いの電話番号を知らせずに</t>
+  </si>
+  <si>
+    <t>their phone numbers and privacy.</t>
+  </si>
+  <si>
+    <t>通話できるサービスです。</t>
+  </si>
+  <si>
+    <t>GET STARTED!</t>
+  </si>
+  <si>
+    <t>スタート</t>
+  </si>
+  <si>
+    <t>Yahoo!</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>匿名電話</t>
+  </si>
+  <si>
+    <t>General_</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>利用規約</t>
+  </si>
+  <si>
+    <t>Powered by Incognito Systems</t>
+  </si>
+  <si>
+    <t>Invite Now!</t>
+  </si>
+  <si>
+    <t>今すぐ招待</t>
+  </si>
+  <si>
+    <t>Enter your Yahoo! ID or Email Address</t>
+  </si>
+  <si>
+    <t>Yahoo! Japan ID または Emailアドレスの入力</t>
+  </si>
+  <si>
+    <t>Invitation_</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Enter your phone number</t>
+  </si>
+  <si>
+    <t>あなたの電話番号の入力</t>
+  </si>
+  <si>
+    <t>No one will see this number!</t>
+  </si>
+  <si>
+    <t>この番号は通知されません</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Yahoo! ID or Email Address of person </t>
+  </si>
+  <si>
+    <t>you wish to speak with</t>
+  </si>
+  <si>
+    <t>電話したい相手の</t>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+  </si>
+  <si>
+    <t>次へ</t>
+  </si>
+  <si>
+    <t>Acknowlegment_</t>
+  </si>
+  <si>
+    <t>Acceptance_</t>
+  </si>
+  <si>
+    <t>Your invitation is ready to be sent!</t>
+  </si>
+  <si>
+    <t>招待確認</t>
+  </si>
+  <si>
+    <t>%1s will be asked to pay the connection fees.</t>
+  </si>
+  <si>
+    <t>SEND INVITATION</t>
+  </si>
+  <si>
+    <t>送信</t>
+  </si>
+  <si>
+    <t>I agree to terms &amp; conditions</t>
+  </si>
+  <si>
+    <t>利用規約に同意します</t>
+  </si>
+  <si>
+    <t>Once %1 accepts your invitation, the First %2s minutes are FREE!*</t>
+  </si>
+  <si>
+    <t>通話開始後</t>
+  </si>
+  <si>
+    <t>最初の2分間は無料です*</t>
+  </si>
+  <si>
+    <t>*You will be charged $%1s every %2s min thereafter.</t>
+  </si>
+  <si>
+    <t>*%3s分以降は%2s分ごとに%1s円の利用料が発生します</t>
+  </si>
+  <si>
+    <t>招待する</t>
+  </si>
+  <si>
+    <t>Confirmation_</t>
+  </si>
+  <si>
+    <t>Your invitation has been sent!</t>
+  </si>
+  <si>
+    <t>招待送信完了</t>
+  </si>
+  <si>
+    <t>We’ll notify you after %1s responds.</t>
+  </si>
+  <si>
+    <t>%1s さんの返答をE-mailやチャットで通知します</t>
+  </si>
+  <si>
+    <t>Please check your chat/email for notification.</t>
+  </si>
+  <si>
+    <t>受信したメールやチャットに記載されている手順に従ってください</t>
+  </si>
+  <si>
+    <t>Response_</t>
+  </si>
+  <si>
+    <t>You have been invited to speak with %1s</t>
+  </si>
+  <si>
+    <t>First %1s minutes FREE!* Speak NOW!</t>
+  </si>
+  <si>
+    <t>%1sさんからの通話招待が届いています</t>
+  </si>
+  <si>
+    <t>最初の%1s分は無料で通話できます*</t>
+  </si>
+  <si>
+    <t>%1sを匿名通話へ招待します</t>
+  </si>
+  <si>
+    <t>%1sさんへ招待と支払の確認を行います</t>
+  </si>
+  <si>
+    <t>Accept the Invitation!</t>
+  </si>
+  <si>
+    <t>招待を許諾</t>
+  </si>
+  <si>
+    <t>Enter your phone number here</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>許諾して送信</t>
+  </si>
+  <si>
+    <t>decline</t>
+  </si>
+  <si>
+    <t>または、</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not ready yet? Click here to </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the invitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">招待を拒否 </t>
+  </si>
+  <si>
+    <t>します</t>
+  </si>
+  <si>
+    <t>You will NOT be charged. %1s will pay the connection fees.</t>
+  </si>
+  <si>
+    <t>%1sさんが通信料を負担するため無料で通話できます</t>
+  </si>
+  <si>
+    <t>Notification_</t>
+  </si>
+  <si>
+    <t>%1s has accepted your invitation!</t>
+  </si>
+  <si>
+    <t>%1sさんが招待を許諾しました</t>
+  </si>
+  <si>
+    <t>PAYPAL CHECKOUT</t>
+  </si>
+  <si>
+    <t>支払情報入力（PAYPAL）</t>
+  </si>
+  <si>
+    <t>We will notify %1s that you are not ready to speak yet.</t>
+  </si>
+  <si>
+    <t>%1sさんへ招待に応じられないことが通知されます</t>
+  </si>
+  <si>
+    <t>Problem_</t>
+  </si>
+  <si>
+    <t>Oops.</t>
+  </si>
+  <si>
+    <t>通話失敗</t>
+  </si>
+  <si>
+    <t>Looks like something went wrong.</t>
+  </si>
+  <si>
+    <t>通話に失敗しました</t>
+  </si>
+  <si>
+    <t>Please re-enter the invitation link in your browser window.</t>
+  </si>
+  <si>
+    <t>ブラウザの招待リンクから再度実行して下さい</t>
+  </si>
+  <si>
+    <t>Retry_</t>
+  </si>
+  <si>
+    <t>This invitation is</t>
+  </si>
+  <si>
+    <t>no longer valid.</t>
+  </si>
+  <si>
+    <t>この招待は</t>
+  </si>
+  <si>
+    <t>有効ではありません</t>
+  </si>
+  <si>
+    <t>Click Here to</t>
+  </si>
+  <si>
+    <t>send another invitation</t>
+  </si>
+  <si>
+    <t>再度招待を</t>
+  </si>
+  <si>
+    <t>行って下さい</t>
+  </si>
+  <si>
+    <t>GET STARTED</t>
+  </si>
+  <si>
+    <t>Sorry,</t>
+  </si>
+  <si>
+    <t>通話招待失敗</t>
+  </si>
+  <si>
+    <t>%1s is not ready to speak with you yet.</t>
+  </si>
+  <si>
+    <t>%1sさんの招待に失敗しました</t>
+  </si>
+  <si>
+    <t>Ready_</t>
+  </si>
+  <si>
+    <t>Get your phone ready!</t>
+  </si>
+  <si>
+    <t>準備完了</t>
+  </si>
+  <si>
+    <t>We will be connecting you with %1s momentarily</t>
+  </si>
+  <si>
+    <t>まもなく%1sさんとの電話が始まります</t>
+  </si>
+  <si>
+    <t>AVC</t>
+  </si>
+  <si>
+    <t>connecting</t>
+  </si>
+  <si>
+    <t>you now</t>
+  </si>
+  <si>
+    <t>通話開始中</t>
+  </si>
+  <si>
+    <t>Message_</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address</t>
+  </si>
+  <si>
+    <t>正しいEメールアドレスを入力して下さい</t>
+  </si>
+  <si>
+    <t>Please enter a valid phone number</t>
+  </si>
+  <si>
+    <t>正しい電話番号を入力して下さい</t>
+  </si>
+  <si>
+    <t>Please enter a valid credit card number</t>
+  </si>
+  <si>
+    <t>正しいクレジットカード番号を入力して下さい</t>
+  </si>
+  <si>
+    <t>I am sorry, but we were not able to process your credit card. Please try another card.</t>
+  </si>
+  <si>
+    <t>指定のクレジットカードで処理できませんでした。別のカードをご利用下さい。</t>
+  </si>
+  <si>
+    <t>We were unable to process your credit card, please try again later.</t>
+  </si>
+  <si>
+    <t>クレジットカードの処理に失敗しました。しばらく時間をおき再度実行して下さい。</t>
+  </si>
+  <si>
+    <t>Please enter a valid credit card expiration date</t>
+  </si>
+  <si>
+    <t>正しいクレジットカードの有効期限を入力して下さい。</t>
+  </si>
+  <si>
+    <t>Please enter a valid CVV code for your credit card, this number is generally found on the back of your credit card</t>
+  </si>
+  <si>
+    <t>正しいクレジットカードのCVV番号を入力して下さい。CVV番号はカードの裏面に記載されています。</t>
+  </si>
+  <si>
+    <t>PaypalForm_</t>
+  </si>
+  <si>
+    <t>ResponseDecline_</t>
+  </si>
+  <si>
+    <t>InvitationDecline_</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>姓</t>
+  </si>
+  <si>
+    <t>Card Type</t>
+  </si>
+  <si>
+    <t>カード種別</t>
+  </si>
+  <si>
+    <t>Card Number</t>
+  </si>
+  <si>
+    <t>カード番号</t>
+  </si>
+  <si>
+    <t>MonthExp</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>CVVExp</t>
+  </si>
+  <si>
+    <t>CVV番号</t>
+  </si>
+  <si>
+    <t>有効期限（月 / 年）</t>
+  </si>
+  <si>
+    <t>CHECKOUT</t>
+  </si>
+  <si>
+    <t>登録</t>
+  </si>
+  <si>
+    <t>ThankYou_</t>
+  </si>
+  <si>
+    <t>Thank You!</t>
+  </si>
+  <si>
+    <t>支払情報登録完了</t>
+  </si>
+  <si>
+    <t>ボタンを押して通話を開始</t>
+  </si>
+  <si>
+    <t>CALL NOW</t>
+  </si>
+  <si>
+    <t>通話開始</t>
+  </si>
+  <si>
+    <t>We will connect you with %1s</t>
+  </si>
+  <si>
+    <t>Invalid_</t>
+  </si>
+  <si>
+    <t>RETRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> もう一度 </t>
   </si>
 </sst>
 </file>
@@ -111,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -129,6 +628,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,7 +912,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Invitation Form page</a:t>
+            <a:t>Invitation page</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7987,7 +8495,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Accept page</a:t>
+            <a:t>Ready page</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9059,112 +9567,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="179" name="Elbow Connector 178"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="197" idx="1"/>
-          <a:endCxn id="160" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5715000" y="10191750"/>
-          <a:ext cx="190500" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="183" name="Straight Arrow Connector 182"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="189" idx="2"/>
-          <a:endCxn id="197" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6858000" y="9334500"/>
-          <a:ext cx="0" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
@@ -9242,9 +9644,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9252,13 +9654,13 @@
         <xdr:cNvPr id="192" name="Elbow Connector 191"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="399" idx="3"/>
-          <a:endCxn id="197" idx="0"/>
+          <a:endCxn id="160" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524500" y="9525000"/>
-          <a:ext cx="1333500" cy="381000"/>
+          <a:ext cx="190500" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -9289,6 +9691,61 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="Elbow Connector 169"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="176" idx="2"/>
+          <a:endCxn id="160" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6000750" y="10191750"/>
+          <a:ext cx="571500" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 31667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
@@ -9302,7 +9759,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="197" name="Rectangle 196"/>
+        <xdr:cNvPr id="176" name="Rectangle 175"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9348,19 +9805,9 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Checkout (index) page</a:t>
+            <a:t>Notification page</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9368,26 +9815,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="Rectangle 200"/>
+        <xdr:cNvPr id="182" name="Rectangle 181"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="10477500"/>
-          <a:ext cx="1914525" cy="381000"/>
+          <a:off x="6638925" y="10629900"/>
+          <a:ext cx="1524000" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9442,6 +9889,59 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="184" name="Straight Arrow Connector 183"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="189" idx="2"/>
+          <a:endCxn id="176" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="9334500"/>
+          <a:ext cx="0" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9712,7 +10212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -9738,10 +10240,10 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
@@ -9750,7 +10252,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
+      <c r="AF1" s="4"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -9774,7 +10276,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
@@ -9784,7 +10286,7 @@
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
+      <c r="AF2" s="4"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -9818,7 +10320,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9852,7 +10354,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+      <c r="AF4" s="4"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -9886,7 +10388,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
+      <c r="AF5" s="4"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -9920,7 +10422,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
+      <c r="AF6" s="4"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -9954,7 +10456,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
+      <c r="AF7" s="4"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -9988,7 +10490,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
+      <c r="AF8" s="4"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -10022,7 +10524,7 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
+      <c r="AF9" s="4"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -10056,7 +10558,7 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
+      <c r="AF10" s="4"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -10090,7 +10592,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
+      <c r="AF11" s="4"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -10124,7 +10626,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
+      <c r="AF12" s="4"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -10158,7 +10660,7 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
+      <c r="AF13" s="4"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -10192,7 +10694,7 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
+      <c r="AF14" s="4"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -10226,7 +10728,7 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
+      <c r="AF15" s="4"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -10260,7 +10762,7 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
+      <c r="AF16" s="4"/>
     </row>
     <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -10294,7 +10796,7 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
+      <c r="AF17" s="4"/>
     </row>
     <row r="18" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -10328,7 +10830,7 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
+      <c r="AF18" s="4"/>
     </row>
     <row r="19" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -10362,7 +10864,7 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
+      <c r="AF19" s="4"/>
     </row>
     <row r="20" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -10396,7 +10898,7 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
+      <c r="AF20" s="4"/>
     </row>
     <row r="21" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -10430,7 +10932,7 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
+      <c r="AF21" s="4"/>
     </row>
     <row r="22" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -10464,7 +10966,7 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
+      <c r="AF22" s="4"/>
     </row>
     <row r="23" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -10498,7 +11000,7 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
+      <c r="AF23" s="4"/>
     </row>
     <row r="24" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -10532,7 +11034,7 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
+      <c r="AF24" s="4"/>
     </row>
     <row r="25" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -10566,7 +11068,7 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
+      <c r="AF25" s="4"/>
     </row>
     <row r="26" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -10600,7 +11102,7 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
+      <c r="AF26" s="4"/>
     </row>
     <row r="27" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -10634,10 +11136,10 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="7" t="s">
+      <c r="AF27" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
@@ -10646,7 +11148,7 @@
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
+      <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
@@ -10711,7 +11213,7 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
+      <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
@@ -10721,7 +11223,7 @@
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
       <c r="AO28" s="7"/>
-      <c r="AP28" s="7"/>
+      <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
@@ -10786,7 +11288,7 @@
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
+      <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
@@ -10861,7 +11363,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
+      <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
@@ -10936,7 +11438,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
+      <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
@@ -11011,7 +11513,7 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
+      <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
@@ -11086,7 +11588,7 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
+      <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
@@ -11161,7 +11663,7 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
+      <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
@@ -11236,7 +11738,7 @@
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
+      <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
@@ -11311,7 +11813,7 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
+      <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
@@ -11386,7 +11888,7 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
+      <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
@@ -11461,7 +11963,7 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
+      <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
@@ -11536,7 +12038,7 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
+      <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
@@ -11611,7 +12113,7 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
+      <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
@@ -11686,7 +12188,7 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
+      <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
@@ -11761,7 +12263,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
+      <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
@@ -11836,7 +12338,7 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
+      <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
@@ -11911,7 +12413,7 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
+      <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
@@ -11985,10 +12487,10 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
-      <c r="AE45" s="9" t="s">
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AF45" s="9"/>
       <c r="AG45" s="9"/>
       <c r="AH45" s="9"/>
       <c r="AI45" s="9"/>
@@ -11998,7 +12500,7 @@
       <c r="AM45" s="9"/>
       <c r="AN45" s="9"/>
       <c r="AO45" s="9"/>
-      <c r="AP45" s="9"/>
+      <c r="AP45" s="10"/>
       <c r="AQ45" s="2"/>
       <c r="AR45" s="2"/>
       <c r="AS45" s="2"/>
@@ -12062,7 +12564,7 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
-      <c r="AE46" s="9"/>
+      <c r="AE46" s="11"/>
       <c r="AF46" s="9"/>
       <c r="AG46" s="9"/>
       <c r="AH46" s="9"/>
@@ -12073,7 +12575,7 @@
       <c r="AM46" s="9"/>
       <c r="AN46" s="9"/>
       <c r="AO46" s="9"/>
-      <c r="AP46" s="9"/>
+      <c r="AP46" s="10"/>
       <c r="AQ46" s="2"/>
       <c r="AR46" s="2"/>
       <c r="AS46" s="2"/>
@@ -12137,7 +12639,7 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
-      <c r="AE47" s="1"/>
+      <c r="AE47" s="3"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
@@ -12212,7 +12714,7 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
-      <c r="AE48" s="1"/>
+      <c r="AE48" s="3"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
@@ -12287,7 +12789,7 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
-      <c r="AE49" s="1"/>
+      <c r="AE49" s="3"/>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
@@ -12362,7 +12864,7 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
-      <c r="AE50" s="1"/>
+      <c r="AE50" s="3"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
@@ -12437,7 +12939,7 @@
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
-      <c r="AE51" s="1"/>
+      <c r="AE51" s="3"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
@@ -12511,7 +13013,7 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
+      <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
@@ -12586,7 +13088,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
+      <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
@@ -15516,13 +16018,1955 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="W1:AF2"/>
-    <mergeCell ref="AG27:AP28"/>
+    <mergeCell ref="V1:AE2"/>
+    <mergeCell ref="AF27:AO28"/>
     <mergeCell ref="A78:L79"/>
-    <mergeCell ref="AE45:AP46"/>
+    <mergeCell ref="AF45:AO46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.140625" customWidth="1"/>
+    <col min="5" max="5" width="67.28515625" customWidth="1"/>
+    <col min="6" max="6" width="1.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>158</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>164</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>166</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>106</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>110</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>113</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>104</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>98</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/doc/Itr-01/Design.xlsx
+++ b/trunk/doc/Itr-01/Design.xlsx
@@ -617,6 +617,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,15 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8004,199 +8004,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="445" name="Rectangle 444"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12382500" y="11620500"/>
-          <a:ext cx="1905000" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Ready page</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="446" name="Rounded Rectangle 445"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12763500" y="12573000"/>
-          <a:ext cx="1143000" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="447" name="Straight Arrow Connector 446"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="434" idx="2"/>
-          <a:endCxn id="445" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13335000" y="11239500"/>
-          <a:ext cx="0" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>59</xdr:row>
@@ -8262,131 +8069,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="449" name="Straight Arrow Connector 448"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="445" idx="2"/>
-          <a:endCxn id="446" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13335000" y="12192000"/>
-          <a:ext cx="0" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="460" name="Rectangle 459"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14287500" y="10668000"/>
-          <a:ext cx="381000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>N</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -8395,212 +8084,19 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="461" name="Elbow Connector 460"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="434" idx="3"/>
+          <a:stCxn id="434" idx="1"/>
           <a:endCxn id="475" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
+        <a:xfrm rot="10800000" flipV="1">
           <a:off x="7048500" y="10858500"/>
-          <a:ext cx="6096000" cy="7334250"/>
+          <a:ext cx="4191000" cy="7143750"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -3125"/>
+            <a:gd name="adj1" fmla="val 5682"/>
           </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="468" name="Rectangle 467"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1333500" y="11239500"/>
-          <a:ext cx="1905000" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Ready page</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="469" name="Rounded Rectangle 468"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1714500" y="12192000"/>
-          <a:ext cx="1143000" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="470" name="Straight Arrow Connector 469"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="468" idx="2"/>
-          <a:endCxn id="469" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2286000" y="11811000"/>
-          <a:ext cx="0" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -8689,59 +8185,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="472" name="Straight Arrow Connector 471"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="171" idx="2"/>
-          <a:endCxn id="468" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2286000" y="10858500"/>
-          <a:ext cx="0" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9918,6 +9361,426 @@
           <a:ext cx="0" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="Elbow Connector 153"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="217" idx="3"/>
+          <a:endCxn id="151" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10096500" y="12668250"/>
+          <a:ext cx="12700" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="Rectangle 158"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10858500" y="10668000"/>
+          <a:ext cx="381000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="Rectangle 171"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="19431000"/>
+          <a:ext cx="1905000" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ready page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="Rounded Rectangle 172"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="20383500"/>
+          <a:ext cx="1143000" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>End</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="Straight Arrow Connector 174"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="172" idx="2"/>
+          <a:endCxn id="173" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="20002500"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="179" name="Elbow Connector 178"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="434" idx="2"/>
+          <a:endCxn id="172" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5381625" y="12906375"/>
+          <a:ext cx="8477250" cy="5143500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="Elbow Connector 179"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="171" idx="2"/>
+          <a:endCxn id="172" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-1285875" y="13287375"/>
+          <a:ext cx="8858250" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -10210,11 +10073,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU102"/>
+  <dimension ref="A1:BU111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10240,18 +10101,18 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
       <c r="AF1" s="4"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -10276,16 +10137,16 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
       <c r="AF2" s="4"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -11136,18 +10997,18 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
-      <c r="AF27" s="7" t="s">
+      <c r="AF27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
@@ -11213,16 +11074,16 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
-      <c r="AK28" s="7"/>
-      <c r="AL28" s="7"/>
-      <c r="AM28" s="7"/>
-      <c r="AN28" s="7"/>
-      <c r="AO28" s="7"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
@@ -12488,19 +12349,19 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
-      <c r="AF45" s="9" t="s">
+      <c r="AF45" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AG45" s="9"/>
-      <c r="AH45" s="9"/>
-      <c r="AI45" s="9"/>
-      <c r="AJ45" s="9"/>
-      <c r="AK45" s="9"/>
-      <c r="AL45" s="9"/>
-      <c r="AM45" s="9"/>
-      <c r="AN45" s="9"/>
-      <c r="AO45" s="9"/>
-      <c r="AP45" s="10"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="6"/>
       <c r="AQ45" s="2"/>
       <c r="AR45" s="2"/>
       <c r="AS45" s="2"/>
@@ -12564,18 +12425,18 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="9"/>
-      <c r="AJ46" s="9"/>
-      <c r="AK46" s="9"/>
-      <c r="AL46" s="9"/>
-      <c r="AM46" s="9"/>
-      <c r="AN46" s="9"/>
-      <c r="AO46" s="9"/>
-      <c r="AP46" s="10"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="12"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="6"/>
       <c r="AQ46" s="2"/>
       <c r="AR46" s="2"/>
       <c r="AS46" s="2"/>
@@ -13638,7 +13499,7 @@
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
-      <c r="BC60" s="2"/>
+      <c r="BC60" s="1"/>
       <c r="BD60" s="2"/>
       <c r="BE60" s="2"/>
       <c r="BF60" s="2"/>
@@ -13713,7 +13574,7 @@
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
-      <c r="BC61" s="2"/>
+      <c r="BC61" s="1"/>
       <c r="BD61" s="2"/>
       <c r="BE61" s="2"/>
       <c r="BF61" s="2"/>
@@ -13788,7 +13649,7 @@
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
-      <c r="BC62" s="2"/>
+      <c r="BC62" s="1"/>
       <c r="BD62" s="2"/>
       <c r="BE62" s="2"/>
       <c r="BF62" s="2"/>
@@ -13863,7 +13724,7 @@
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
-      <c r="BC63" s="2"/>
+      <c r="BC63" s="1"/>
       <c r="BD63" s="2"/>
       <c r="BE63" s="2"/>
       <c r="BF63" s="2"/>
@@ -13938,7 +13799,7 @@
       <c r="AZ64" s="1"/>
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
-      <c r="BC64" s="2"/>
+      <c r="BC64" s="1"/>
       <c r="BD64" s="2"/>
       <c r="BE64" s="2"/>
       <c r="BF64" s="2"/>
@@ -14013,7 +13874,7 @@
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
-      <c r="BC65" s="2"/>
+      <c r="BC65" s="1"/>
       <c r="BD65" s="2"/>
       <c r="BE65" s="2"/>
       <c r="BF65" s="2"/>
@@ -14088,7 +13949,7 @@
       <c r="AZ66" s="1"/>
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
-      <c r="BC66" s="2"/>
+      <c r="BC66" s="1"/>
       <c r="BD66" s="2"/>
       <c r="BE66" s="2"/>
       <c r="BF66" s="2"/>
@@ -14163,7 +14024,7 @@
       <c r="AZ67" s="1"/>
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
-      <c r="BC67" s="2"/>
+      <c r="BC67" s="1"/>
       <c r="BD67" s="2"/>
       <c r="BE67" s="2"/>
       <c r="BF67" s="2"/>
@@ -14238,7 +14099,7 @@
       <c r="AZ68" s="1"/>
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
-      <c r="BC68" s="2"/>
+      <c r="BC68" s="1"/>
       <c r="BD68" s="2"/>
       <c r="BE68" s="2"/>
       <c r="BF68" s="2"/>
@@ -14307,7 +14168,7 @@
       <c r="AZ69" s="1"/>
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
-      <c r="BC69" s="2"/>
+      <c r="BC69" s="1"/>
       <c r="BD69" s="2"/>
       <c r="BE69" s="2"/>
       <c r="BF69" s="2"/>
@@ -14376,7 +14237,7 @@
       <c r="AZ70" s="1"/>
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
-      <c r="BC70" s="2"/>
+      <c r="BC70" s="1"/>
       <c r="BD70" s="2"/>
       <c r="BE70" s="2"/>
       <c r="BF70" s="2"/>
@@ -14445,6 +14306,7 @@
       <c r="AZ71" s="1"/>
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
     </row>
     <row r="72" spans="1:73" x14ac:dyDescent="0.25">
       <c r="G72" s="4"/>
@@ -14495,6 +14357,7 @@
       <c r="AZ72" s="1"/>
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
     </row>
     <row r="73" spans="1:73" x14ac:dyDescent="0.25">
       <c r="M73" s="1"/>
@@ -14539,6 +14402,7 @@
       <c r="AZ73" s="1"/>
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
     </row>
     <row r="74" spans="1:73" x14ac:dyDescent="0.25">
       <c r="M74" s="1"/>
@@ -14583,6 +14447,7 @@
       <c r="AZ74" s="1"/>
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
+      <c r="BC74" s="1"/>
     </row>
     <row r="75" spans="1:73" x14ac:dyDescent="0.25">
       <c r="G75" s="4"/>
@@ -14633,6 +14498,7 @@
       <c r="AZ75" s="1"/>
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
     </row>
     <row r="76" spans="1:73" x14ac:dyDescent="0.25">
       <c r="G76" s="4"/>
@@ -14683,6 +14549,7 @@
       <c r="AZ76" s="1"/>
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
     </row>
     <row r="77" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M77" s="1"/>
@@ -14727,22 +14594,23 @@
       <c r="AZ77" s="1"/>
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
     </row>
     <row r="78" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -14785,20 +14653,21 @@
       <c r="AZ78" s="1"/>
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
     </row>
     <row r="79" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -14841,6 +14710,7 @@
       <c r="AZ79" s="1"/>
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
     </row>
     <row r="80" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
@@ -14897,8 +14767,9 @@
       <c r="AZ80" s="1"/>
       <c r="BA80" s="1"/>
       <c r="BB80" s="1"/>
-    </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC80" s="1"/>
+    </row>
+    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -14953,8 +14824,9 @@
       <c r="AZ81" s="1"/>
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
-    </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC81" s="1"/>
+    </row>
+    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -15009,8 +14881,9 @@
       <c r="AZ82" s="1"/>
       <c r="BA82" s="1"/>
       <c r="BB82" s="1"/>
-    </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC82" s="1"/>
+    </row>
+    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -15065,8 +14938,9 @@
       <c r="AZ83" s="1"/>
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
-    </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC83" s="1"/>
+    </row>
+    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -15115,8 +14989,9 @@
       <c r="AZ84" s="1"/>
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
-    </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC84" s="1"/>
+    </row>
+    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
@@ -15165,8 +15040,9 @@
       <c r="AZ85" s="1"/>
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
-    </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC85" s="1"/>
+    </row>
+    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -15215,8 +15091,9 @@
       <c r="AZ86" s="1"/>
       <c r="BA86" s="1"/>
       <c r="BB86" s="1"/>
-    </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC86" s="1"/>
+    </row>
+    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
@@ -15265,8 +15142,9 @@
       <c r="AZ87" s="1"/>
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
-    </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC87" s="1"/>
+    </row>
+    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -15315,8 +15193,9 @@
       <c r="AZ88" s="1"/>
       <c r="BA88" s="1"/>
       <c r="BB88" s="1"/>
-    </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC88" s="1"/>
+    </row>
+    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -15365,8 +15244,9 @@
       <c r="AZ89" s="1"/>
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
-    </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC89" s="1"/>
+    </row>
+    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -15415,8 +15295,9 @@
       <c r="AZ90" s="1"/>
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
-    </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC90" s="1"/>
+    </row>
+    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -15465,8 +15346,9 @@
       <c r="AZ91" s="1"/>
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
-    </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC91" s="1"/>
+    </row>
+    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -15515,8 +15397,9 @@
       <c r="AZ92" s="1"/>
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
-    </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC92" s="1"/>
+    </row>
+    <row r="93" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -15565,8 +15448,9 @@
       <c r="AZ93" s="1"/>
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
-    </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC93" s="1"/>
+    </row>
+    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -15615,8 +15499,9 @@
       <c r="AZ94" s="1"/>
       <c r="BA94" s="1"/>
       <c r="BB94" s="1"/>
-    </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC94" s="1"/>
+    </row>
+    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -15665,8 +15550,9 @@
       <c r="AZ95" s="1"/>
       <c r="BA95" s="1"/>
       <c r="BB95" s="1"/>
-    </row>
-    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC95" s="1"/>
+    </row>
+    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
@@ -15715,8 +15601,9 @@
       <c r="AZ96" s="1"/>
       <c r="BA96" s="1"/>
       <c r="BB96" s="1"/>
-    </row>
-    <row r="97" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="BC96" s="1"/>
+    </row>
+    <row r="97" spans="7:55" x14ac:dyDescent="0.25">
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -15765,8 +15652,9 @@
       <c r="AZ97" s="1"/>
       <c r="BA97" s="1"/>
       <c r="BB97" s="1"/>
-    </row>
-    <row r="98" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="BC97" s="1"/>
+    </row>
+    <row r="98" spans="7:55" x14ac:dyDescent="0.25">
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -15815,8 +15703,9 @@
       <c r="AZ98" s="1"/>
       <c r="BA98" s="1"/>
       <c r="BB98" s="1"/>
-    </row>
-    <row r="99" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="BC98" s="1"/>
+    </row>
+    <row r="99" spans="7:55" x14ac:dyDescent="0.25">
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -15865,8 +15754,9 @@
       <c r="AZ99" s="1"/>
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
-    </row>
-    <row r="100" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="BC99" s="1"/>
+    </row>
+    <row r="100" spans="7:55" x14ac:dyDescent="0.25">
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -15915,8 +15805,9 @@
       <c r="AZ100" s="1"/>
       <c r="BA100" s="1"/>
       <c r="BB100" s="1"/>
-    </row>
-    <row r="101" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="BC100" s="1"/>
+    </row>
+    <row r="101" spans="7:55" x14ac:dyDescent="0.25">
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -15965,8 +15856,9 @@
       <c r="AZ101" s="1"/>
       <c r="BA101" s="1"/>
       <c r="BB101" s="1"/>
-    </row>
-    <row r="102" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="BC101" s="1"/>
+    </row>
+    <row r="102" spans="7:55" x14ac:dyDescent="0.25">
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -16015,6 +15907,412 @@
       <c r="AZ102" s="1"/>
       <c r="BA102" s="1"/>
       <c r="BB102" s="1"/>
+      <c r="BC102" s="1"/>
+    </row>
+    <row r="103" spans="7:55" x14ac:dyDescent="0.25">
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+      <c r="AN103" s="1"/>
+      <c r="AO103" s="1"/>
+      <c r="AP103" s="1"/>
+      <c r="AQ103" s="1"/>
+      <c r="AR103" s="1"/>
+      <c r="AS103" s="1"/>
+      <c r="AT103" s="1"/>
+      <c r="AU103" s="1"/>
+      <c r="AV103" s="1"/>
+      <c r="AW103" s="1"/>
+      <c r="AX103" s="1"/>
+      <c r="AY103" s="1"/>
+      <c r="AZ103" s="1"/>
+      <c r="BA103" s="1"/>
+      <c r="BB103" s="1"/>
+      <c r="BC103" s="1"/>
+    </row>
+    <row r="104" spans="7:55" x14ac:dyDescent="0.25">
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
+      <c r="AM104" s="1"/>
+      <c r="AN104" s="1"/>
+      <c r="AO104" s="1"/>
+      <c r="AP104" s="1"/>
+      <c r="AQ104" s="1"/>
+      <c r="AR104" s="1"/>
+      <c r="AS104" s="1"/>
+      <c r="AT104" s="1"/>
+      <c r="AU104" s="1"/>
+      <c r="AV104" s="1"/>
+      <c r="AW104" s="1"/>
+      <c r="AX104" s="1"/>
+      <c r="AY104" s="1"/>
+      <c r="AZ104" s="1"/>
+      <c r="BA104" s="1"/>
+      <c r="BB104" s="1"/>
+      <c r="BC104" s="1"/>
+    </row>
+    <row r="105" spans="7:55" x14ac:dyDescent="0.25">
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+      <c r="AM105" s="1"/>
+      <c r="AN105" s="1"/>
+      <c r="AO105" s="1"/>
+      <c r="AP105" s="1"/>
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="1"/>
+      <c r="AS105" s="1"/>
+      <c r="AT105" s="1"/>
+      <c r="AU105" s="1"/>
+      <c r="AV105" s="1"/>
+      <c r="AW105" s="1"/>
+      <c r="AX105" s="1"/>
+      <c r="AY105" s="1"/>
+      <c r="AZ105" s="1"/>
+      <c r="BA105" s="1"/>
+      <c r="BB105" s="1"/>
+      <c r="BC105" s="1"/>
+    </row>
+    <row r="106" spans="7:55" x14ac:dyDescent="0.25">
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="1"/>
+      <c r="AN106" s="1"/>
+      <c r="AO106" s="1"/>
+      <c r="AP106" s="1"/>
+      <c r="AQ106" s="1"/>
+      <c r="AR106" s="1"/>
+      <c r="AS106" s="1"/>
+      <c r="AT106" s="1"/>
+      <c r="AU106" s="1"/>
+      <c r="AV106" s="1"/>
+      <c r="AW106" s="1"/>
+      <c r="AX106" s="1"/>
+      <c r="AY106" s="1"/>
+      <c r="AZ106" s="1"/>
+      <c r="BA106" s="1"/>
+      <c r="BB106" s="1"/>
+      <c r="BC106" s="1"/>
+    </row>
+    <row r="107" spans="7:55" x14ac:dyDescent="0.25">
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
+      <c r="AM107" s="1"/>
+      <c r="AN107" s="1"/>
+      <c r="AO107" s="1"/>
+      <c r="AP107" s="1"/>
+      <c r="AQ107" s="1"/>
+      <c r="AR107" s="1"/>
+      <c r="AS107" s="1"/>
+      <c r="AT107" s="1"/>
+      <c r="AU107" s="1"/>
+      <c r="AV107" s="1"/>
+      <c r="AW107" s="1"/>
+      <c r="AX107" s="1"/>
+      <c r="AY107" s="1"/>
+      <c r="AZ107" s="1"/>
+      <c r="BA107" s="1"/>
+      <c r="BB107" s="1"/>
+      <c r="BC107" s="1"/>
+    </row>
+    <row r="108" spans="7:55" x14ac:dyDescent="0.25">
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
+      <c r="AN108" s="1"/>
+      <c r="AO108" s="1"/>
+      <c r="AP108" s="1"/>
+      <c r="AQ108" s="1"/>
+      <c r="AR108" s="1"/>
+      <c r="AS108" s="1"/>
+      <c r="AT108" s="1"/>
+      <c r="AU108" s="1"/>
+      <c r="AV108" s="1"/>
+      <c r="AW108" s="1"/>
+      <c r="AX108" s="1"/>
+      <c r="AY108" s="1"/>
+      <c r="AZ108" s="1"/>
+      <c r="BA108" s="1"/>
+      <c r="BB108" s="1"/>
+      <c r="BC108" s="1"/>
+    </row>
+    <row r="109" spans="7:55" x14ac:dyDescent="0.25">
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="1"/>
+      <c r="AJ109" s="1"/>
+      <c r="AK109" s="1"/>
+      <c r="AL109" s="1"/>
+      <c r="AM109" s="1"/>
+      <c r="AN109" s="1"/>
+      <c r="AO109" s="1"/>
+      <c r="AP109" s="1"/>
+      <c r="AQ109" s="1"/>
+      <c r="AR109" s="1"/>
+      <c r="AS109" s="1"/>
+      <c r="AT109" s="1"/>
+      <c r="AU109" s="1"/>
+      <c r="AV109" s="1"/>
+      <c r="AW109" s="1"/>
+      <c r="AX109" s="1"/>
+      <c r="AY109" s="1"/>
+      <c r="AZ109" s="1"/>
+      <c r="BA109" s="1"/>
+      <c r="BB109" s="1"/>
+      <c r="BC109" s="1"/>
+    </row>
+    <row r="110" spans="7:55" x14ac:dyDescent="0.25">
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+      <c r="AH110" s="1"/>
+      <c r="AI110" s="1"/>
+      <c r="AJ110" s="1"/>
+      <c r="AK110" s="1"/>
+      <c r="AL110" s="1"/>
+      <c r="AM110" s="1"/>
+      <c r="AN110" s="1"/>
+      <c r="AO110" s="1"/>
+      <c r="AP110" s="1"/>
+      <c r="AQ110" s="1"/>
+      <c r="AR110" s="1"/>
+      <c r="AS110" s="1"/>
+      <c r="AT110" s="1"/>
+      <c r="AU110" s="1"/>
+      <c r="AV110" s="1"/>
+      <c r="AW110" s="1"/>
+      <c r="AX110" s="1"/>
+      <c r="AY110" s="1"/>
+      <c r="AZ110" s="1"/>
+      <c r="BA110" s="1"/>
+      <c r="BB110" s="1"/>
+      <c r="BC110" s="1"/>
+    </row>
+    <row r="111" spans="7:55" x14ac:dyDescent="0.25">
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
+      <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
+      <c r="AN111" s="1"/>
+      <c r="AO111" s="1"/>
+      <c r="AP111" s="1"/>
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="1"/>
+      <c r="AS111" s="1"/>
+      <c r="AT111" s="1"/>
+      <c r="AU111" s="1"/>
+      <c r="AV111" s="1"/>
+      <c r="AW111" s="1"/>
+      <c r="AX111" s="1"/>
+      <c r="AY111" s="1"/>
+      <c r="AZ111" s="1"/>
+      <c r="BA111" s="1"/>
+      <c r="BB111" s="1"/>
+      <c r="BC111" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -16460,7 +16758,7 @@
       <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F23" t="s">
@@ -16734,7 +17032,7 @@
       <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="8" t="s">
         <v>76</v>
       </c>
       <c r="F39" t="s">
@@ -16848,7 +17146,7 @@
       <c r="D46" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F46" t="s">
@@ -16948,7 +17246,7 @@
       <c r="D53" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="8" t="s">
         <v>120</v>
       </c>
       <c r="F53" t="s">
@@ -16968,7 +17266,7 @@
       <c r="D54" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="8" t="s">
         <v>122</v>
       </c>
       <c r="F54" t="s">
@@ -17008,7 +17306,7 @@
       <c r="D56" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F56" t="s">
@@ -17028,7 +17326,7 @@
       <c r="D57" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="8" t="s">
         <v>126</v>
       </c>
       <c r="F57" t="s">
@@ -17065,7 +17363,7 @@
       <c r="D60" t="s">
         <v>114</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="8" t="s">
         <v>115</v>
       </c>
       <c r="F60" t="s">
@@ -17085,7 +17383,7 @@
       <c r="D61" t="s">
         <v>116</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F61" t="s">
@@ -17105,7 +17403,7 @@
       <c r="D63" t="s">
         <v>71</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F63" t="s">
@@ -17125,7 +17423,7 @@
       <c r="D64" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F64" t="s">
@@ -17145,7 +17443,7 @@
       <c r="D65" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F65" t="s">
@@ -17162,10 +17460,10 @@
       <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="8" t="s">
         <v>89</v>
       </c>
       <c r="F66" t="s">
@@ -17185,7 +17483,7 @@
       <c r="D67" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="8" t="s">
         <v>78</v>
       </c>
       <c r="F67" t="s">
@@ -17205,7 +17503,7 @@
       <c r="D68" t="s">
         <v>79</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F68" t="s">
@@ -17225,7 +17523,7 @@
       <c r="D69" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F69" t="s">
@@ -17245,7 +17543,7 @@
       <c r="D70" t="s">
         <v>80</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F70" t="s">
@@ -17265,7 +17563,7 @@
       <c r="D71" t="s">
         <v>84</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="8" t="s">
         <v>83</v>
       </c>
       <c r="F71" t="s">
@@ -17285,7 +17583,7 @@
       <c r="D72" t="s">
         <v>82</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F72" t="s">
@@ -17305,7 +17603,7 @@
       <c r="D73" t="s">
         <v>85</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="8" t="s">
         <v>87</v>
       </c>
       <c r="F73" t="s">
@@ -17325,7 +17623,7 @@
       <c r="D75" t="s">
         <v>95</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F75" t="s">
@@ -17333,7 +17631,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E76" s="12"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -17348,7 +17646,7 @@
       <c r="D77" t="s">
         <v>91</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F77" t="s">
@@ -17368,7 +17666,7 @@
       <c r="D78" t="s">
         <v>72</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F78" t="s">
@@ -17388,7 +17686,7 @@
       <c r="D79" t="s">
         <v>60</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F79" t="s">
@@ -17408,7 +17706,7 @@
       <c r="D80" t="s">
         <v>93</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F80" t="s">
@@ -17416,7 +17714,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E81" s="12"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -17431,7 +17729,7 @@
       <c r="D82" t="s">
         <v>145</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="8" t="s">
         <v>146</v>
       </c>
       <c r="F82" t="s">
@@ -17451,7 +17749,7 @@
       <c r="D83" t="s">
         <v>147</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="8" t="s">
         <v>148</v>
       </c>
       <c r="F83" t="s">
@@ -17471,7 +17769,7 @@
       <c r="D84" t="s">
         <v>149</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="8" t="s">
         <v>150</v>
       </c>
       <c r="F84" t="s">
@@ -17491,7 +17789,7 @@
       <c r="D85" t="s">
         <v>151</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F85" t="s">
@@ -17511,7 +17809,7 @@
       <c r="D86" t="s">
         <v>155</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="8" t="s">
         <v>156</v>
       </c>
       <c r="F86" t="s">
@@ -17531,7 +17829,7 @@
       <c r="D87" t="s">
         <v>153</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="8" t="s">
         <v>157</v>
       </c>
       <c r="F87" t="s">
@@ -17551,7 +17849,7 @@
       <c r="D88" t="s">
         <v>154</v>
       </c>
-      <c r="E88" s="12"/>
+      <c r="E88" s="8"/>
       <c r="F88" t="s">
         <v>6</v>
       </c>
@@ -17569,7 +17867,7 @@
       <c r="D89" t="s">
         <v>158</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F89" t="s">
@@ -17577,7 +17875,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E90" s="12"/>
+      <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -17592,7 +17890,7 @@
       <c r="D91" t="s">
         <v>161</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="8" t="s">
         <v>162</v>
       </c>
       <c r="F91" t="s">
@@ -17612,7 +17910,7 @@
       <c r="D92" t="s">
         <v>119</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="8" t="s">
         <v>163</v>
       </c>
       <c r="F92" t="s">
@@ -17632,7 +17930,7 @@
       <c r="D93" t="s">
         <v>164</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="8" t="s">
         <v>165</v>
       </c>
       <c r="F93" t="s">
@@ -17652,7 +17950,7 @@
       <c r="D94" t="s">
         <v>166</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E94" s="8" t="s">
         <v>122</v>
       </c>
       <c r="F94" t="s">
@@ -17692,7 +17990,7 @@
       <c r="D96" t="s">
         <v>123</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E96" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F96" t="s">
@@ -17712,7 +18010,7 @@
       <c r="D97" t="s">
         <v>124</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="8" t="s">
         <v>126</v>
       </c>
       <c r="F97" t="s">
@@ -17737,7 +18035,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="12"/>
+      <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -17752,7 +18050,7 @@
       <c r="D100" t="s">
         <v>98</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="8" t="s">
         <v>99</v>
       </c>
       <c r="F100" t="s">
@@ -17772,7 +18070,7 @@
       <c r="D101" t="s">
         <v>100</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F101" t="s">
@@ -17792,7 +18090,7 @@
       <c r="D102" t="s">
         <v>102</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F102" t="s">
@@ -17800,7 +18098,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E103" s="12"/>
+      <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -17815,7 +18113,7 @@
       <c r="D104" t="s">
         <v>105</v>
       </c>
-      <c r="E104" s="12" t="s">
+      <c r="E104" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F104" t="s">
@@ -17835,7 +18133,7 @@
       <c r="D105" t="s">
         <v>106</v>
       </c>
-      <c r="E105" s="12" t="s">
+      <c r="E105" s="8" t="s">
         <v>108</v>
       </c>
       <c r="F105" t="s">
@@ -17855,7 +18153,7 @@
       <c r="D106" t="s">
         <v>109</v>
       </c>
-      <c r="E106" s="12" t="s">
+      <c r="E106" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F106" t="s">
@@ -17875,7 +18173,7 @@
       <c r="D107" t="s">
         <v>110</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F107" t="s">
@@ -17895,7 +18193,7 @@
       <c r="D108" t="s">
         <v>113</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F108" t="s">
@@ -17903,7 +18201,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E109" s="12"/>
+      <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -17918,7 +18216,7 @@
       <c r="D110" t="s">
         <v>98</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="E110" s="8" t="s">
         <v>99</v>
       </c>
       <c r="F110" t="s">
@@ -17938,7 +18236,7 @@
       <c r="D111" t="s">
         <v>100</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="E111" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F111" t="s">
@@ -17958,7 +18256,7 @@
       <c r="D112" t="s">
         <v>168</v>
       </c>
-      <c r="E112" s="12" t="s">
+      <c r="E112" s="8" t="s">
         <v>169</v>
       </c>
       <c r="F112" t="s">

--- a/trunk/doc/Itr-01/Design.xlsx
+++ b/trunk/doc/Itr-01/Design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="174">
   <si>
     <t>InvitationController</t>
   </si>
@@ -534,7 +534,19 @@
     <t>RETRY</t>
   </si>
   <si>
-    <t xml:space="preserve"> もう一度 </t>
+    <t>リトライ</t>
+  </si>
+  <si>
+    <t>Sorry_</t>
+  </si>
+  <si>
+    <t>通話キャンセル</t>
+  </si>
+  <si>
+    <t>%1s is not available to speak with you at this time.</t>
+  </si>
+  <si>
+    <t>%1sさんが招待をキャンセルしたため通話は行われません</t>
   </si>
 </sst>
 </file>
@@ -4523,7 +4535,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -8249,7 +8261,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Problem page</a:t>
+            <a:t>Sorry page</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10075,7 +10087,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ100" sqref="AQ100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16329,10 +16343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18263,6 +18277,46 @@
         <v>6</v>
       </c>
     </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>114</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>172</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/doc/Itr-01/Design.xlsx
+++ b/trunk/doc/Itr-01/Design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
@@ -156,12 +156,6 @@
     <t>Step 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter Yahoo! ID or Email Address of person </t>
-  </si>
-  <si>
-    <t>you wish to speak with</t>
-  </si>
-  <si>
     <t>電話したい相手の</t>
   </si>
   <si>
@@ -198,13 +192,7 @@
     <t>利用規約に同意します</t>
   </si>
   <si>
-    <t>Once %1 accepts your invitation, the First %2s minutes are FREE!*</t>
-  </si>
-  <si>
     <t>通話開始後</t>
-  </si>
-  <si>
-    <t>最初の2分間は無料です*</t>
   </si>
   <si>
     <t>*You will be charged $%1s every %2s min thereafter.</t>
@@ -548,6 +536,18 @@
   <si>
     <t>%1sさんが招待をキャンセルしたため通話は行われません</t>
   </si>
+  <si>
+    <t>of person you wish to speak with</t>
+  </si>
+  <si>
+    <t>Enter Yahoo! ID or Email Address</t>
+  </si>
+  <si>
+    <t>最初の%1s分間は無料です*</t>
+  </si>
+  <si>
+    <t>Once %1s accepts your invitation, the First %2s minutes are FREE!*</t>
+  </si>
 </sst>
 </file>
 
@@ -8544,7 +8544,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -8579,7 +8579,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Decline Following page</a:t>
+            <a:t>Decline page</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10087,8 +10087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ100" sqref="AQ100"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BE55" sqref="BE55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16345,8 +16345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16390,10 +16390,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -16470,10 +16470,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -16481,7 +16481,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -16490,10 +16490,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -16501,7 +16501,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -16510,10 +16510,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -16521,7 +16521,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -16530,10 +16530,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -16541,7 +16541,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -16550,10 +16550,10 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -16561,7 +16561,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -16581,7 +16581,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -16590,10 +16590,10 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -16964,10 +16964,10 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" t="s">
         <v>43</v>
-      </c>
-      <c r="E34" t="s">
-        <v>45</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -16984,7 +16984,7 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="E35" t="s">
         <v>34</v>
@@ -17004,10 +17004,10 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
@@ -17015,7 +17015,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -17024,10 +17024,10 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
@@ -17035,7 +17035,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -17044,10 +17044,10 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -17055,7 +17055,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -17064,10 +17064,10 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -17075,7 +17075,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -17084,10 +17084,10 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -17104,10 +17104,10 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
@@ -17115,7 +17115,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -17124,7 +17124,7 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -17132,7 +17132,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -17141,7 +17141,7 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="F45" t="s">
         <v>6</v>
@@ -17149,7 +17149,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -17158,10 +17158,10 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -17169,7 +17169,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -17178,10 +17178,10 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -17189,7 +17189,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -17198,10 +17198,10 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -17209,7 +17209,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -17218,10 +17218,10 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -17229,7 +17229,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -17238,10 +17238,10 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -17249,7 +17249,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -17258,10 +17258,10 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -17269,7 +17269,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -17278,10 +17278,10 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -17289,7 +17289,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -17309,7 +17309,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -17318,7 +17318,7 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>25</v>
@@ -17329,7 +17329,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -17338,10 +17338,10 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -17349,7 +17349,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -17358,7 +17358,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -17366,7 +17366,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -17375,10 +17375,10 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -17386,7 +17386,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -17395,10 +17395,10 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
@@ -17406,7 +17406,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -17415,10 +17415,10 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -17426,7 +17426,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -17435,10 +17435,10 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -17446,7 +17446,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -17455,10 +17455,10 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -17466,7 +17466,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -17475,10 +17475,10 @@
         <v>5</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -17486,7 +17486,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -17495,10 +17495,10 @@
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -17506,7 +17506,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -17515,7 +17515,7 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>39</v>
@@ -17526,7 +17526,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>7</v>
@@ -17546,7 +17546,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -17555,10 +17555,10 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -17566,7 +17566,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B71">
         <v>9</v>
@@ -17575,10 +17575,10 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -17586,7 +17586,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -17595,10 +17595,10 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B73">
         <v>11</v>
@@ -17615,10 +17615,10 @@
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -17626,7 +17626,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -17635,10 +17635,10 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -17649,7 +17649,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -17658,10 +17658,10 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F77" t="s">
         <v>6</v>
@@ -17669,7 +17669,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -17678,10 +17678,10 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -17689,7 +17689,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -17698,10 +17698,10 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -17709,7 +17709,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -17718,10 +17718,10 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -17732,7 +17732,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -17741,10 +17741,10 @@
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -17752,7 +17752,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -17761,10 +17761,10 @@
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -17781,10 +17781,10 @@
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -17792,7 +17792,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -17801,10 +17801,10 @@
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -17812,7 +17812,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -17821,10 +17821,10 @@
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
@@ -17832,7 +17832,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -17841,10 +17841,10 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -17852,7 +17852,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B88">
         <v>7</v>
@@ -17861,7 +17861,7 @@
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" t="s">
@@ -17870,7 +17870,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B89">
         <v>8</v>
@@ -17879,10 +17879,10 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -17893,7 +17893,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -17902,10 +17902,10 @@
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -17913,7 +17913,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -17922,10 +17922,10 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -17933,7 +17933,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -17942,10 +17942,10 @@
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F93" t="s">
         <v>6</v>
@@ -17953,7 +17953,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -17962,10 +17962,10 @@
         <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -17973,7 +17973,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -17993,7 +17993,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -18002,7 +18002,7 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>25</v>
@@ -18013,7 +18013,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -18022,10 +18022,10 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -18033,7 +18033,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B98">
         <v>8</v>
@@ -18042,7 +18042,7 @@
         <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -18053,7 +18053,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -18062,10 +18062,10 @@
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
@@ -18073,7 +18073,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -18082,10 +18082,10 @@
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -18093,7 +18093,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -18102,10 +18102,10 @@
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -18116,7 +18116,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -18125,10 +18125,10 @@
         <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -18136,7 +18136,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -18145,10 +18145,10 @@
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
@@ -18156,7 +18156,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -18165,10 +18165,10 @@
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -18176,7 +18176,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -18185,10 +18185,10 @@
         <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F107" t="s">
         <v>6</v>
@@ -18196,7 +18196,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -18205,7 +18205,7 @@
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>20</v>
@@ -18219,7 +18219,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -18228,10 +18228,10 @@
         <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -18239,7 +18239,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -18248,10 +18248,10 @@
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -18259,7 +18259,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -18268,10 +18268,10 @@
         <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F112" t="s">
         <v>6</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -18288,10 +18288,10 @@
         <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F114" t="s">
         <v>6</v>
@@ -18299,7 +18299,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -18308,10 +18308,10 @@
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>

--- a/trunk/doc/Itr-01/Design.xlsx
+++ b/trunk/doc/Itr-01/Design.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="175">
   <si>
     <t>InvitationController</t>
   </si>
@@ -177,9 +177,6 @@
     <t>招待確認</t>
   </si>
   <si>
-    <t>%1s will be asked to pay the connection fees.</t>
-  </si>
-  <si>
     <t>SEND INVITATION</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
   </si>
   <si>
     <t>%1sを匿名通話へ招待します</t>
-  </si>
-  <si>
-    <t>%1sさんへ招待と支払の確認を行います</t>
   </si>
   <si>
     <t>Accept the Invitation!</t>
@@ -547,6 +541,15 @@
   </si>
   <si>
     <t>Once %1s accepts your invitation, the First %2s minutes are FREE!*</t>
+  </si>
+  <si>
+    <t>Your invitation is ready&lt;br&gt;to be sent!</t>
+  </si>
+  <si>
+    <t>%1s&lt;br&gt;will be asked to pay the&lt;br&gt;connection fees.</t>
+  </si>
+  <si>
+    <t>%1sさんへ&lt;br&gt;招待と支払の確認を&lt;br&gt;行います</t>
   </si>
 </sst>
 </file>
@@ -16345,8 +16348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16390,10 +16393,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -16461,7 +16464,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -16470,10 +16473,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -16490,10 +16493,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -16501,7 +16504,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -16510,10 +16513,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -16521,7 +16524,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -16530,10 +16533,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -16541,7 +16544,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -16550,10 +16553,10 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -16561,7 +16564,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -16570,10 +16573,10 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -16581,7 +16584,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -16590,10 +16593,10 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -16964,7 +16967,7 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E34" t="s">
         <v>43</v>
@@ -16984,7 +16987,7 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E35" t="s">
         <v>34</v>
@@ -17024,7 +17027,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="E38" t="s">
         <v>49</v>
@@ -17044,10 +17047,10 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -17064,10 +17067,10 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
         <v>51</v>
-      </c>
-      <c r="E40" t="s">
-        <v>52</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -17104,10 +17107,10 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
@@ -17124,7 +17127,7 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -17141,7 +17144,7 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F45" t="s">
         <v>6</v>
@@ -17158,10 +17161,10 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -17178,10 +17181,10 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -17189,7 +17192,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -17198,10 +17201,10 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
         <v>60</v>
-      </c>
-      <c r="E49" t="s">
-        <v>61</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -17209,7 +17212,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -17218,10 +17221,10 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
         <v>62</v>
-      </c>
-      <c r="E50" t="s">
-        <v>63</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -17229,7 +17232,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -17238,10 +17241,10 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
         <v>64</v>
-      </c>
-      <c r="E51" t="s">
-        <v>65</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -17249,7 +17252,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -17258,10 +17261,10 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -17269,7 +17272,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -17278,10 +17281,10 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -17289,7 +17292,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -17309,7 +17312,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -17318,7 +17321,7 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>25</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -17338,10 +17341,10 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -17349,7 +17352,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -17358,7 +17361,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -17366,7 +17369,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -17375,10 +17378,10 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -17386,7 +17389,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -17395,10 +17398,10 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
@@ -17406,7 +17409,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -17415,10 +17418,10 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -17426,7 +17429,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -17435,10 +17438,10 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -17446,7 +17449,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -17455,10 +17458,10 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -17466,7 +17469,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -17475,10 +17478,10 @@
         <v>5</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -17486,7 +17489,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -17495,10 +17498,10 @@
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -17506,7 +17509,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -17515,7 +17518,7 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>39</v>
@@ -17526,7 +17529,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>7</v>
@@ -17546,7 +17549,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -17555,10 +17558,10 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -17566,7 +17569,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71">
         <v>9</v>
@@ -17575,10 +17578,10 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -17586,7 +17589,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -17595,10 +17598,10 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -17606,7 +17609,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73">
         <v>11</v>
@@ -17615,10 +17618,10 @@
         <v>5</v>
       </c>
       <c r="D73" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -17626,7 +17629,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -17635,10 +17638,10 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -17649,7 +17652,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -17658,10 +17661,10 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F77" t="s">
         <v>6</v>
@@ -17669,7 +17672,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -17678,10 +17681,10 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -17689,7 +17692,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -17698,10 +17701,10 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -17709,7 +17712,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -17718,10 +17721,10 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -17732,7 +17735,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -17741,10 +17744,10 @@
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -17752,7 +17755,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -17761,10 +17764,10 @@
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -17772,7 +17775,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -17781,10 +17784,10 @@
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -17792,7 +17795,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -17801,10 +17804,10 @@
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -17812,7 +17815,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -17821,10 +17824,10 @@
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
@@ -17832,7 +17835,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -17841,10 +17844,10 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -17852,7 +17855,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B88">
         <v>7</v>
@@ -17861,7 +17864,7 @@
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" t="s">
@@ -17870,7 +17873,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B89">
         <v>8</v>
@@ -17879,10 +17882,10 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -17893,7 +17896,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -17902,10 +17905,10 @@
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -17913,7 +17916,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -17922,10 +17925,10 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -17933,7 +17936,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -17942,10 +17945,10 @@
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F93" t="s">
         <v>6</v>
@@ -17953,7 +17956,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -17962,10 +17965,10 @@
         <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -17973,7 +17976,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -17993,7 +17996,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -18002,7 +18005,7 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>25</v>
@@ -18013,7 +18016,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -18022,10 +18025,10 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -18033,7 +18036,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B98">
         <v>8</v>
@@ -18042,7 +18045,7 @@
         <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -18053,7 +18056,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -18062,10 +18065,10 @@
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
@@ -18073,7 +18076,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -18082,10 +18085,10 @@
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -18093,7 +18096,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -18102,10 +18105,10 @@
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -18116,7 +18119,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -18125,10 +18128,10 @@
         <v>5</v>
       </c>
       <c r="D104" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -18136,7 +18139,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -18145,10 +18148,10 @@
         <v>5</v>
       </c>
       <c r="D105" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
@@ -18156,7 +18159,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -18165,10 +18168,10 @@
         <v>5</v>
       </c>
       <c r="D106" t="s">
+        <v>103</v>
+      </c>
+      <c r="E106" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -18176,7 +18179,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -18185,10 +18188,10 @@
         <v>5</v>
       </c>
       <c r="D107" t="s">
+        <v>104</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="F107" t="s">
         <v>6</v>
@@ -18196,7 +18199,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -18205,7 +18208,7 @@
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>20</v>
@@ -18219,7 +18222,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -18228,10 +18231,10 @@
         <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -18239,7 +18242,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -18248,10 +18251,10 @@
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -18259,7 +18262,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -18268,10 +18271,10 @@
         <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F112" t="s">
         <v>6</v>
@@ -18279,7 +18282,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -18288,10 +18291,10 @@
         <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F114" t="s">
         <v>6</v>
@@ -18299,7 +18302,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -18308,10 +18311,10 @@
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>

--- a/trunk/doc/Itr-01/Design.xlsx
+++ b/trunk/doc/Itr-01/Design.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="176">
   <si>
     <t>InvitationController</t>
   </si>
@@ -551,6 +551,9 @@
   <si>
     <t>%1sさんへ&lt;br&gt;招待と支払の確認を&lt;br&gt;行います</t>
   </si>
+  <si>
+    <t xml:space="preserve">通話開始中 </t>
+  </si>
 </sst>
 </file>
 
@@ -16349,7 +16352,7 @@
   <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17344,7 +17347,7 @@
         <v>118</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
